--- a/temp_result/Matrice Expensya et Grand livre.xlsx
+++ b/temp_result/Matrice Expensya et Grand livre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IlyassGotni\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adventplus.sharepoint.com/sites/Comptabilit/Documents partages/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA3ED6-8269-4C6D-98C9-DC1D72FD752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{06B0CA3C-4189-4E34-BBF4-D6843CCB8F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F79D49-FCAD-4800-B912-5064372F3A80}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E482D6A-A03A-466A-B551-937A4B80649E}"/>
+    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{5E482D6A-A03A-466A-B551-937A4B80649E}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrice Expensya" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matrice Expensya'!$A$1:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matrice Expensya'!$A$1:$D$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Matrice Grand livre'!$A$8:$B$65</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -899,7 +899,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1277,7 +1277,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D33" xr:uid="{AB15D49E-F6C2-4724-855E-C36C3A028FEF}"/>
+  <autoFilter ref="A1:D32" xr:uid="{AB15D49E-F6C2-4724-855E-C36C3A028FEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2032,26 +2032,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72c6a0f5-537d-4ec7-bb12-d8d93e6e4b15">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f0981829-bc8a-4ce8-a3f6-038d1f0c6b09" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA2C4E8271019445A5EA5D89D5FC5F5F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="69e22b7d9f0ad57ae1222b627943d4c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c6a0f5-537d-4ec7-bb12-d8d93e6e4b15" xmlns:ns3="f0981829-bc8a-4ce8-a3f6-038d1f0c6b09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6cf437d76a35126f67f16fa7605e44ad" ns2:_="" ns3:_="">
     <xsd:import namespace="72c6a0f5-537d-4ec7-bb12-d8d93e6e4b15"/>
@@ -2280,10 +2260,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="72c6a0f5-537d-4ec7-bb12-d8d93e6e4b15">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f0981829-bc8a-4ce8-a3f6-038d1f0c6b09" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B715EF3E-1BC4-417E-9BB7-183C2164C989}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB7BC423-9019-4F01-B27F-1000C72FED68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72c6a0f5-537d-4ec7-bb12-d8d93e6e4b15"/>
+    <ds:schemaRef ds:uri="f0981829-bc8a-4ce8-a3f6-038d1f0c6b09"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2306,20 +2317,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB7BC423-9019-4F01-B27F-1000C72FED68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B715EF3E-1BC4-417E-9BB7-183C2164C989}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72c6a0f5-537d-4ec7-bb12-d8d93e6e4b15"/>
-    <ds:schemaRef ds:uri="f0981829-bc8a-4ce8-a3f6-038d1f0c6b09"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>